--- a/Filters.xlsx
+++ b/Filters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vidush/Documents/Code Projects/gmail-janitor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2EEB72-F70A-3143-8082-27C0C1381C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811B539B-DE66-D843-9DEC-3EE96BB8DAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" activeTab="1" xr2:uid="{874576CD-ED6F-C24F-B502-4909BC3997CC}"/>
+    <workbookView xWindow="20520" yWindow="12840" windowWidth="20360" windowHeight="12680" activeTab="1" xr2:uid="{874576CD-ED6F-C24F-B502-4909BC3997CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sender" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904B6364-37C0-474D-90D0-1C042F2D1121}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
